--- a/uiFramework/src/main/resources/configFile/testData.xlsx
+++ b/uiFramework/src/main/resources/configFile/testData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" windowHeight="16420" windowWidth="28040" xWindow="380" yWindow="460"/>
+    <workbookView activeTab="2" firstSheet="1" windowHeight="16420" windowWidth="28040" xWindow="380" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="Login" r:id="rId1" sheetId="1" state="hidden"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>TestName</t>
   </si>
@@ -80,64 +80,64 @@
     <t>ItemDescription</t>
   </si>
   <si>
+    <t>formal pants</t>
+  </si>
+  <si>
+    <t>Login1</t>
+  </si>
+  <si>
+    <t>Login2</t>
+  </si>
+  <si>
+    <t>Login3</t>
+  </si>
+  <si>
+    <t>Login4</t>
+  </si>
+  <si>
+    <t>Login Step1</t>
+  </si>
+  <si>
+    <t>Login Step2</t>
+  </si>
+  <si>
+    <t>Login Step3</t>
+  </si>
+  <si>
+    <t>Login Step4</t>
+  </si>
+  <si>
+    <t>Login Comments1</t>
+  </si>
+  <si>
+    <t>Login Comments2</t>
+  </si>
+  <si>
+    <t>Login Comments3</t>
+  </si>
+  <si>
+    <t>Login Comments4</t>
+  </si>
+  <si>
+    <t>Pass1</t>
+  </si>
+  <si>
+    <t>Pass2</t>
+  </si>
+  <si>
+    <t>Pass3</t>
+  </si>
+  <si>
+    <t>Pass4</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>performOrientation</t>
+  </si>
+  <si>
     <t>65 inch tv</t>
-  </si>
-  <si>
-    <t>formal pants</t>
-  </si>
-  <si>
-    <t>Login1</t>
-  </si>
-  <si>
-    <t>Login2</t>
-  </si>
-  <si>
-    <t>Login3</t>
-  </si>
-  <si>
-    <t>Login4</t>
-  </si>
-  <si>
-    <t>Login Step1</t>
-  </si>
-  <si>
-    <t>Login Step2</t>
-  </si>
-  <si>
-    <t>Login Step3</t>
-  </si>
-  <si>
-    <t>Login Step4</t>
-  </si>
-  <si>
-    <t>Login Comments1</t>
-  </si>
-  <si>
-    <t>Login Comments2</t>
-  </si>
-  <si>
-    <t>Login Comments3</t>
-  </si>
-  <si>
-    <t>Login Comments4</t>
-  </si>
-  <si>
-    <t>Pass1</t>
-  </si>
-  <si>
-    <t>Pass2</t>
-  </si>
-  <si>
-    <t>Pass3</t>
-  </si>
-  <si>
-    <t>Pass4</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>performOrientation</t>
   </si>
 </sst>
 </file>
@@ -561,61 +561,61 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -647,39 +647,39 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>33</v>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
         <v>33</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -716,7 +716,7 @@
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -725,7 +725,7 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>

--- a/uiFramework/src/main/resources/configFile/testData.xlsx
+++ b/uiFramework/src/main/resources/configFile/testData.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>TestName</t>
   </si>
